--- a/1_R Wkshp_dummy data_OTU table.xlsx
+++ b/1_R Wkshp_dummy data_OTU table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
+    <workbookView xWindow="90" yWindow="5145" windowWidth="19440" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,18 +289,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,10 +304,22 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -687,10 +687,10 @@
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="AN5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -721,143 +721,143 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
     </row>
     <row r="2" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="17" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="24" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="17" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="24" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="15" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="17" t="s">
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="17" t="s">
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="17" t="s">
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="15" t="s">
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="17" t="s">
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3459,6 +3459,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="Z1:AW1"/>
     <mergeCell ref="B2:D2"/>
@@ -3475,8 +3477,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
   </mergeCells>
   <conditionalFormatting sqref="B19:B29">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
